--- a/StructureDefinition-profile-PractitionerRole.xlsx
+++ b/StructureDefinition-profile-PractitionerRole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7703401-06:00</t>
+    <t>2026-02-09T22:05:43.2792031-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,33 +425,117 @@
     <t>PractitionerRole.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:contact</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.contact|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PractitionerRole.contact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available relevant to the specific PractitionerRole. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+  </si>
+  <si>
+    <t>Element `PractitionerRole.contact` is will have a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:characteristic</t>
+  </si>
+  <si>
+    <t>characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.characteristic|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PractitionerRole.characteristic from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Collection of characteristics (attributes).</t>
+  </si>
+  <si>
+    <t>Element `PractitionerRole.characteristic` is will have a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:communication</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.communication|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PractitionerRole.communication from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A language the practitioner can use in patient communication. The practitioner may know several languages (listed in practitioner.communication), however these are the languages that could be advertised in a directory for a patient to search.</t>
+  </si>
+  <si>
+    <t>Element `PractitionerRole.communication` is will have a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:availability</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.availability|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PractitionerRole.availability from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A collection of times the practitioner is available or performing this role at the location and/or healthcareservice.</t>
+  </si>
+  <si>
+    <t>Element `PractitionerRole.availability` is will have a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>PractitionerRole.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -459,6 +543,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -712,9 +799,6 @@
     <t>Times the Service Site is available</t>
   </si>
   <si>
-    <t>A collection of times the practitioner is available or performing this role at the location and/or healthcareservice.</t>
-  </si>
-  <si>
     <t>More detailed availability information may be provided in associated Schedule/Slot resources.</t>
   </si>
   <si>
@@ -741,6 +825,9 @@
   </si>
   <si>
     <t>PractitionerRole.availableTime.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1185,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1196,7 +1283,7 @@
   <cols>
     <col min="1" max="1" width="40.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.9453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1204,7 +1291,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="29.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2160,7 +2247,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2179,17 +2266,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2226,16 +2311,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2256,7 +2339,7 @@
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2270,11 +2353,13 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2287,26 +2372,24 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2354,7 +2437,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2363,7 +2446,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2372,7 +2455,7 @@
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2383,12 +2466,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2406,21 +2491,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2468,7 +2553,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2477,32 +2562,34 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2511,7 +2598,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2520,7 +2607,7 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>155</v>
@@ -2534,15 +2621,11 @@
       <c r="N12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2586,41 +2669,43 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2629,7 +2714,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2638,21 +2723,21 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2700,71 +2785,75 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2812,25 +2901,25 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -2841,10 +2930,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2855,7 +2944,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -2867,16 +2956,18 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -2924,13 +3015,13 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
@@ -2939,24 +3030,24 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2967,7 +3058,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -2979,24 +3070,26 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="P16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="O16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3016,13 +3109,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3040,13 +3133,13 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
@@ -3055,24 +3148,24 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3083,7 +3176,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3095,16 +3188,18 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3128,13 +3223,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3152,13 +3247,13 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
@@ -3167,24 +3262,24 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3195,7 +3290,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3207,13 +3302,13 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3264,13 +3359,13 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -3282,21 +3377,21 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3307,7 +3402,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3316,16 +3411,16 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3376,13 +3471,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -3391,10 +3486,10 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3405,10 +3500,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3431,17 +3526,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3466,13 +3563,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3490,7 +3587,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3505,13 +3602,13 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3542,20 +3639,18 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>225</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3580,13 +3675,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3619,13 +3714,13 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3633,10 +3728,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3647,7 +3742,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -3656,16 +3751,16 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3716,43 +3811,43 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3771,17 +3866,15 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3830,7 +3923,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3842,13 +3935,13 @@
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3859,14 +3952,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3879,25 +3972,23 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -3946,7 +4037,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3958,13 +4049,13 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -3975,10 +4066,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4001,15 +4092,17 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4034,13 +4127,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4058,7 +4151,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4076,7 +4169,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4087,10 +4180,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4113,13 +4206,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4170,7 +4263,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4182,13 +4275,13 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4199,21 +4292,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4225,16 +4318,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4284,25 +4377,25 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4313,44 +4406,46 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4398,25 +4493,25 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4427,10 +4522,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4453,13 +4548,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4486,13 +4581,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4510,7 +4605,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4528,7 +4623,7 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4539,10 +4634,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4565,13 +4660,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4622,7 +4717,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4634,13 +4729,13 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4651,21 +4746,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4677,16 +4772,16 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4736,25 +4831,25 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4765,46 +4860,44 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -4852,25 +4945,25 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4881,10 +4974,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4892,10 +4985,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -4907,13 +5000,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4964,13 +5057,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -4982,7 +5075,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -4993,10 +5086,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5019,13 +5112,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5076,7 +5169,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5088,13 +5181,13 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5105,21 +5198,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5131,15 +5224,17 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5188,25 +5283,25 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5217,14 +5312,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5237,23 +5332,25 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5302,7 +5399,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5314,18 +5411,468 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AK37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-PractitionerRole.xlsx
+++ b/StructureDefinition-profile-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2792031-06:00</t>
+    <t>2026-02-17T14:42:26.8812903-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,7 +465,7 @@
     <t>The contact details of communication devices available relevant to the specific PractitionerRole. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
   </si>
   <si>
-    <t>Element `PractitionerRole.contact` is will have a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
+    <t>Element `PractitionerRole.contact` has a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -488,7 +488,7 @@
     <t>Collection of characteristics (attributes).</t>
   </si>
   <si>
-    <t>Element `PractitionerRole.characteristic` is will have a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
+    <t>Element `PractitionerRole.characteristic` has a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
   </si>
   <si>
     <t>PractitionerRole.extension:communication</t>
@@ -507,7 +507,7 @@
     <t>A language the practitioner can use in patient communication. The practitioner may know several languages (listed in practitioner.communication), however these are the languages that could be advertised in a directory for a patient to search.</t>
   </si>
   <si>
-    <t>Element `PractitionerRole.communication` is will have a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
+    <t>Element `PractitionerRole.communication` has a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
   </si>
   <si>
     <t>PractitionerRole.extension:availability</t>
@@ -526,7 +526,7 @@
     <t>A collection of times the practitioner is available or performing this role at the location and/or healthcareservice.</t>
   </si>
   <si>
-    <t>Element `PractitionerRole.availability` is will have a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
+    <t>Element `PractitionerRole.availability` has a context of PractitionerRole based on following the parent source element upwards and mapping to `PractitionerRole`.</t>
   </si>
   <si>
     <t>PractitionerRole.modifierExtension</t>

--- a/StructureDefinition-profile-PractitionerRole.xlsx
+++ b/StructureDefinition-profile-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8812903-06:00</t>
+    <t>2026-02-20T11:59:20.9216772-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/PractitionerRole|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/PractitionerRole</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.contact|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.contact}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>characteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.characteristic|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.characteristic}
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>communication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.communication|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.communication}
 </t>
   </si>
   <si>
@@ -516,7 +516,7 @@
     <t>availability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.availability|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.availability}
 </t>
   </si>
   <si>
@@ -1291,7 +1291,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.1171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.70703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-PractitionerRole.xlsx
+++ b/StructureDefinition-profile-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9216772-06:00</t>
+    <t>2026-02-21T13:36:54.3261374-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/PractitionerRole</t>
+    <t>http://hl7.org/fhir/StructureDefinition/PractitionerRole|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.contact}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.contact|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>characteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.characteristic}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.characteristic|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>communication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.communication}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.communication|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -516,7 +516,7 @@
     <t>availability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.availability}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PractitionerRole.availability|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1291,7 +1291,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.70703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
